--- a/GradeDistributionsDB/Spring2014/Output/Spring2014 AR.xlsx
+++ b/GradeDistributionsDB/Spring2014/Output/Spring2014 AR.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="632">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ARCH-206</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>4.76%</t>
   </si>
   <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>ARCH-249</t>
   </si>
   <si>
@@ -157,6 +163,9 @@
     <t>2.04%</t>
   </si>
   <si>
+    <t>5.77%</t>
+  </si>
+  <si>
     <t>ARCH-250</t>
   </si>
   <si>
@@ -178,6 +187,9 @@
     <t>0.48%</t>
   </si>
   <si>
+    <t>1.42%</t>
+  </si>
+  <si>
     <t>ARCH-305</t>
   </si>
   <si>
@@ -232,6 +244,9 @@
     <t>12.12%</t>
   </si>
   <si>
+    <t>13.16%</t>
+  </si>
+  <si>
     <t>ARCH-335</t>
   </si>
   <si>
@@ -262,6 +277,9 @@
     <t>0.82%</t>
   </si>
   <si>
+    <t>0.81%</t>
+  </si>
+  <si>
     <t>ARCH-350</t>
   </si>
   <si>
@@ -280,6 +298,9 @@
     <t>5.20%</t>
   </si>
   <si>
+    <t>6.49%</t>
+  </si>
+  <si>
     <t>ARCH-406</t>
   </si>
   <si>
@@ -319,6 +340,9 @@
     <t>50.00%</t>
   </si>
   <si>
+    <t>5.88%</t>
+  </si>
+  <si>
     <t>ARCH-430</t>
   </si>
   <si>
@@ -439,6 +463,9 @@
     <t>6.67%</t>
   </si>
   <si>
+    <t>2.17%</t>
+  </si>
+  <si>
     <t>ARCH-634</t>
   </si>
   <si>
@@ -589,6 +616,9 @@
     <t>2.72%</t>
   </si>
   <si>
+    <t>0.68%</t>
+  </si>
+  <si>
     <t>ARTS-150</t>
   </si>
   <si>
@@ -610,6 +640,9 @@
     <t>2.25%</t>
   </si>
   <si>
+    <t>3.35%</t>
+  </si>
+  <si>
     <t>41.76%</t>
   </si>
   <si>
@@ -625,6 +658,9 @@
     <t>1.10%</t>
   </si>
   <si>
+    <t>6.19%</t>
+  </si>
+  <si>
     <t>ARTS-212</t>
   </si>
   <si>
@@ -664,7 +700,7 @@
     <t>22.73%</t>
   </si>
   <si>
-    <t>4.55%</t>
+    <t>4.35%</t>
   </si>
   <si>
     <t>ARTS-304</t>
@@ -691,6 +727,9 @@
     <t>VIGUS G</t>
   </si>
   <si>
+    <t>8.70%</t>
+  </si>
+  <si>
     <t>EILERS H</t>
   </si>
   <si>
@@ -706,6 +745,9 @@
     <t>5.71%</t>
   </si>
   <si>
+    <t>5.41%</t>
+  </si>
+  <si>
     <t>ARTS-311</t>
   </si>
   <si>
@@ -736,6 +778,9 @@
     <t>4.24%</t>
   </si>
   <si>
+    <t>1.67%</t>
+  </si>
+  <si>
     <t>ARTS-403</t>
   </si>
   <si>
@@ -757,9 +802,6 @@
     <t>95.65%</t>
   </si>
   <si>
-    <t>4.35%</t>
-  </si>
-  <si>
     <t>WEBER S</t>
   </si>
   <si>
@@ -799,6 +841,9 @@
     <t>CARC-481</t>
   </si>
   <si>
+    <t>0.72%</t>
+  </si>
+  <si>
     <t>LEE C</t>
   </si>
   <si>
@@ -874,9 +919,6 @@
     <t>23.53%</t>
   </si>
   <si>
-    <t>5.88%</t>
-  </si>
-  <si>
     <t>ESCAMILLA E</t>
   </si>
   <si>
@@ -907,6 +949,9 @@
     <t>0.93%</t>
   </si>
   <si>
+    <t>1.37%</t>
+  </si>
+  <si>
     <t>SEGNER R</t>
   </si>
   <si>
@@ -937,6 +982,9 @@
     <t>6.28%</t>
   </si>
   <si>
+    <t>10.75%</t>
+  </si>
+  <si>
     <t>COSC-275</t>
   </si>
   <si>
@@ -955,6 +1003,9 @@
     <t>0.75%</t>
   </si>
   <si>
+    <t>3.62%</t>
+  </si>
+  <si>
     <t>DUFF M</t>
   </si>
   <si>
@@ -964,6 +1015,9 @@
     <t>12.73%</t>
   </si>
   <si>
+    <t>5.17%</t>
+  </si>
+  <si>
     <t>COSC-301</t>
   </si>
   <si>
@@ -994,6 +1048,9 @@
     <t>7.41%</t>
   </si>
   <si>
+    <t>8.47%</t>
+  </si>
+  <si>
     <t>COSC-323</t>
   </si>
   <si>
@@ -1093,6 +1150,9 @@
     <t>3.51%</t>
   </si>
   <si>
+    <t>3.39%</t>
+  </si>
+  <si>
     <t>COSC-381</t>
   </si>
   <si>
@@ -1108,6 +1168,9 @@
     <t>1.75%</t>
   </si>
   <si>
+    <t>1.72%</t>
+  </si>
+  <si>
     <t>COSC-421</t>
   </si>
   <si>
@@ -1117,6 +1180,9 @@
     <t>3.70%</t>
   </si>
   <si>
+    <t>6.90%</t>
+  </si>
+  <si>
     <t>COSC-440</t>
   </si>
   <si>
@@ -1168,6 +1234,9 @@
     <t>2.27%</t>
   </si>
   <si>
+    <t>6.38%</t>
+  </si>
+  <si>
     <t>COSC-464</t>
   </si>
   <si>
@@ -1267,9 +1336,6 @@
     <t>91.30%</t>
   </si>
   <si>
-    <t>8.70%</t>
-  </si>
-  <si>
     <t>COSC-650</t>
   </si>
   <si>
@@ -1303,9 +1369,15 @@
     <t>1.68%</t>
   </si>
   <si>
+    <t>5.54%</t>
+  </si>
+  <si>
     <t>97.78%</t>
   </si>
   <si>
+    <t>0.55%</t>
+  </si>
+  <si>
     <t>ENDS-106</t>
   </si>
   <si>
@@ -1321,6 +1393,9 @@
     <t>3.33%</t>
   </si>
   <si>
+    <t>3.23%</t>
+  </si>
+  <si>
     <t>ROGERS J</t>
   </si>
   <si>
@@ -1573,6 +1648,9 @@
     <t>59.62%</t>
   </si>
   <si>
+    <t>1.89%</t>
+  </si>
+  <si>
     <t>URPN-310</t>
   </si>
   <si>
@@ -1627,13 +1705,10 @@
     <t>11.59%</t>
   </si>
   <si>
-    <t>2.17%</t>
-  </si>
-  <si>
     <t>1.45%</t>
   </si>
   <si>
-    <t>0.72%</t>
+    <t>2.13%</t>
   </si>
   <si>
     <t>URPN-401</t>
@@ -1706,6 +1781,9 @@
   </si>
   <si>
     <t>1.23%</t>
+  </si>
+  <si>
+    <t>2.41%</t>
   </si>
   <si>
     <t>VIST-201</t>
@@ -1869,12 +1947,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -2168,15 +2245,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H567"/>
+  <dimension ref="A1:I567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2201,6035 +2278,6713 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.125</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>3.588</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>3.353</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
         <v>3.875</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
         <v>3.846</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>3.824</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
         <v>3.018</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
         <v>3.571</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" t="n">
         <v>2.674</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C22" t="n">
         <v>3.4623</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C26" t="n">
         <v>3.278</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C29" t="n">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C32" t="n">
         <v>3.533</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C35" t="n">
         <v>2.636</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C38" t="n">
         <v>2.816</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C41" t="n">
         <v>3.601</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C44" t="n">
         <v>2.971</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C47" t="n">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C48" t="n">
         <v>3.75</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C49" t="n">
         <v>3.85</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C50" t="n">
         <v>3.65</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C53" t="n">
         <v>3.5</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C56" t="n">
         <v>3.16</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G56" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C59" t="n">
         <v>3.714</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C62" t="n">
         <v>3.8025</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C65" t="n">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C66" t="n">
         <v>3.8</v>
       </c>
       <c r="D66" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C72" t="n">
         <v>3.625</v>
       </c>
       <c r="D72" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C73" t="n">
         <v>3.6</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E73" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C74" t="n">
         <v>3.572</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E74" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C77" t="n">
         <v>2.429</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F77" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G77" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C80" t="n">
         <v>2.889</v>
       </c>
       <c r="D80" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E80" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F80" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C83" t="n">
         <v>3.833</v>
       </c>
       <c r="D83" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E83" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C86" t="n">
         <v>3.833</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E86" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C89" t="n">
         <v>3.489</v>
       </c>
       <c r="D89" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" t="s">
+        <v>147</v>
+      </c>
+      <c r="F89" t="s">
+        <v>148</v>
+      </c>
+      <c r="G89" t="s">
         <v>121</v>
       </c>
-      <c r="E89" t="s">
-        <v>139</v>
-      </c>
-      <c r="F89" t="s">
-        <v>140</v>
-      </c>
-      <c r="G89" t="s">
-        <v>113</v>
-      </c>
       <c r="H89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C92" t="n">
         <v>3.727</v>
       </c>
       <c r="D92" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E92" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C95" t="n">
         <v>3.533</v>
       </c>
       <c r="D95" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E95" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F95" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C98" t="n">
         <v>3.818</v>
       </c>
       <c r="D98" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E98" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C101" t="n">
         <v>3.636</v>
       </c>
       <c r="D101" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H101" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C107" t="n">
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C110" t="n">
         <v>3.769</v>
       </c>
       <c r="D110" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E110" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C113" t="n">
         <v>3.348</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E113" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C116" t="n">
         <v>3.917</v>
       </c>
       <c r="D116" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E116" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C119" t="n">
         <v>3.625</v>
       </c>
       <c r="D119" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C122" t="n">
         <v>3.75</v>
       </c>
       <c r="D122" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E122" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C125" t="n">
         <v>3.778</v>
       </c>
       <c r="D125" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E125" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C128" t="n">
         <v>3.923</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E128" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C129" t="n">
         <v>3.769</v>
       </c>
       <c r="D129" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E129" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C132" t="n">
         <v>3.96</v>
       </c>
       <c r="D132" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E132" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C135" t="n">
         <v>3.2535</v>
       </c>
       <c r="D135" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E135" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F135" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C138" t="n">
         <v>3.5</v>
       </c>
       <c r="D138" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E138" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C141" t="n">
         <v>3.068</v>
       </c>
       <c r="D141" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E141" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F141" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G141" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H141" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I141" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C144" t="n">
         <v>3.2848</v>
       </c>
       <c r="D144" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E144" t="s">
+        <v>204</v>
+      </c>
+      <c r="F144" t="s">
+        <v>205</v>
+      </c>
+      <c r="G144" t="s">
+        <v>206</v>
+      </c>
+      <c r="H144" t="s">
+        <v>207</v>
+      </c>
+      <c r="I144" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="B145" t="s">
         <v>194</v>
-      </c>
-      <c r="F144" t="s">
-        <v>195</v>
-      </c>
-      <c r="G144" t="s">
-        <v>196</v>
-      </c>
-      <c r="H144" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="B145" t="s">
-        <v>185</v>
       </c>
       <c r="C145" t="n">
         <v>3.253</v>
       </c>
       <c r="D145" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E145" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F145" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G145" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H145" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I145" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C148" t="n">
         <v>3.5</v>
       </c>
       <c r="D148" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E148" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F148" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C149" t="n">
         <v>3.556</v>
       </c>
       <c r="D149" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I149" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C150" t="n">
         <v>3.556</v>
       </c>
       <c r="D150" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E150" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F150" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C153" t="n">
         <v>3.25</v>
       </c>
       <c r="D153" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E153" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C154" t="n">
         <v>3.546</v>
       </c>
       <c r="D154" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E154" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F154" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I154" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C157" t="n">
         <v>3.714</v>
       </c>
       <c r="D157" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E157" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C160" t="n">
         <v>3.312</v>
       </c>
       <c r="D160" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E160" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F160" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I160" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C163" t="n">
         <v>3.143</v>
       </c>
       <c r="D163" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E163" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F163" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I163" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C164" t="n">
         <v>3.591</v>
       </c>
       <c r="D164" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E164" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F164" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H164" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C165" t="n">
         <v>3.116</v>
       </c>
       <c r="D165" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E165" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="F165" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="G165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I165" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C168" t="n">
         <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H168" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="B171" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I171" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="B174" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C174" t="n">
         <v>3.619</v>
       </c>
       <c r="D174" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E174" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I174" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="B177" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C177" t="n">
         <v>3.0003</v>
       </c>
       <c r="D177" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="E177" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F177" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="G177" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="H177" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I177" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C180" t="n">
         <v>3.2</v>
       </c>
       <c r="D180" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E180" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G180" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I180" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="B183" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C183" t="n">
         <v>3.333</v>
       </c>
       <c r="D183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E183" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I183" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="B186" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C186" t="n">
         <v>3.833</v>
       </c>
       <c r="D186" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E186" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G186" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H186" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C187" t="n">
         <v>3.956</v>
       </c>
       <c r="D187" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="E187" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H187" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C188" t="n">
         <v>4</v>
       </c>
       <c r="D188" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H188" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I188" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="B189" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C189" t="n">
         <v>3.773</v>
       </c>
       <c r="D189" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E189" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H189" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I189" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="B192" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C192" t="n">
         <v>3.615</v>
       </c>
       <c r="D192" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="E192" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C193" t="n">
         <v>4</v>
       </c>
       <c r="D193" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H193" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I193" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C194" t="n">
         <v>4</v>
       </c>
       <c r="D194" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I194" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="B195" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C195" t="n">
         <v>4</v>
       </c>
       <c r="D195" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I195" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="B198" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C198" t="n">
         <v>3.452</v>
       </c>
       <c r="D198" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E198" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F198" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="G198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I198" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="B199" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C199" t="n">
         <v>3.5</v>
       </c>
       <c r="D199" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E199" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C200" t="n">
         <v>3.917</v>
       </c>
       <c r="D200" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E200" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C203" t="n">
         <v>4</v>
       </c>
       <c r="D203" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H203" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I203" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C204" t="n">
         <v>3.423</v>
       </c>
       <c r="D204" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E204" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F204" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G204" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H204" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>280</v>
+      </c>
+      <c r="I204" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="B207" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C207" t="n">
         <v>3.867</v>
       </c>
       <c r="D207" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="E207" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F207" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G207" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H207" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I207" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="B208" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C208" t="n">
         <v>3.625</v>
       </c>
       <c r="D208" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G208" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H208" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I208" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C209" t="n">
         <v>3.143</v>
       </c>
       <c r="D209" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E209" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G209" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H209" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I209" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="B210" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C210" t="n">
         <v>4</v>
       </c>
       <c r="D210" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H210" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I210" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="B213" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C213" t="n">
         <v>3.4</v>
       </c>
       <c r="D213" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E213" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F213" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G213" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H213" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I213" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="B216" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C216" t="n">
         <v>3.15</v>
       </c>
       <c r="D216" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E216" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F216" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G216" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H216" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I216" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C219" t="n">
         <v>3.923</v>
       </c>
       <c r="D219" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E219" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F219" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G219" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H219" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C222" t="n">
         <v>3.12</v>
       </c>
       <c r="D222" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="E222" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F222" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="G222" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H222" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I222" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="B223" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C223" t="n">
         <v>3.647</v>
       </c>
       <c r="D223" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="E223" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F223" t="s">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="G223" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H223" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="B224" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C224" t="n">
         <v>3.56</v>
       </c>
       <c r="D224" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="E224" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G224" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H224" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I224" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C225" t="n">
         <v>3.833</v>
       </c>
       <c r="D225" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E225" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F225" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G225" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H225" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I225" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="B226" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C226" t="n">
         <v>3.077</v>
       </c>
       <c r="D226" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="E226" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F226" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="G226" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H226" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I226" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="B229" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C229" t="n">
         <v>2.875</v>
       </c>
       <c r="D229" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="E229" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F229" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="G229" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="H229" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>310</v>
+      </c>
+      <c r="I229" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="B230" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C230" t="n">
         <v>2.706</v>
       </c>
       <c r="D230" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="E230" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="F230" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="G230" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H230" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I230" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="B233" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C233" t="n">
         <v>2.4955</v>
       </c>
       <c r="D233" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="E233" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F233" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="G233" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="H233" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>321</v>
+      </c>
+      <c r="I233" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="B236" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C236" t="n">
         <v>2.7308</v>
       </c>
       <c r="D236" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="E236" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="F236" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G236" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="H236" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>328</v>
+      </c>
+      <c r="I236" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C237" t="n">
         <v>3.873</v>
       </c>
       <c r="D237" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="E237" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G237" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H237" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I237" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="C240" t="n">
         <v>2.933</v>
       </c>
       <c r="D240" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="E240" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="F240" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G240" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H240" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I240" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="C243" t="n">
         <v>2.482</v>
       </c>
       <c r="D243" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="E243" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="F243" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="G243" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="H243" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>343</v>
+      </c>
+      <c r="I243" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="B246" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C246" t="n">
         <v>3.1095</v>
       </c>
       <c r="D246" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="E246" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="F246" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="G246" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H246" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>349</v>
+      </c>
+      <c r="I246" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C247" t="n">
         <v>3.062</v>
       </c>
       <c r="D247" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E247" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="F247" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G247" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H247" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I247" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="C250" t="n">
         <v>3.5</v>
       </c>
       <c r="D250" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="E250" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="F250" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="G250" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H250" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I250" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="B253" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C253" t="n">
         <v>2.949</v>
       </c>
       <c r="D253" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="E253" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="F253" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="G253" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H253" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I253" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="B256" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="C256" t="n">
         <v>2.8</v>
       </c>
       <c r="D256" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E256" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="F256" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="G256" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H256" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="B259" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C259" t="n">
         <v>3.071</v>
       </c>
       <c r="D259" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E259" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="F259" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G259" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H259" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="B260" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="C260" t="n">
         <v>2.808</v>
       </c>
       <c r="D260" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="E260" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="F260" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G260" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H260" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>280</v>
+      </c>
+      <c r="I260" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="B263" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C263" t="n">
         <v>3.5835</v>
       </c>
       <c r="D263" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="E263" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="F263" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G263" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H263" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I263" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="C266" t="n">
         <v>2.7405</v>
       </c>
       <c r="D266" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="E266" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="F266" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="G266" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="H266" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I266" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="B269" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="C269" t="n">
         <v>3.14</v>
       </c>
       <c r="D269" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E269" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="F269" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="G269" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H269" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>383</v>
+      </c>
+      <c r="I269" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="B272" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="C272" t="n">
         <v>3</v>
       </c>
       <c r="D272" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E272" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="F272" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G272" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H272" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>387</v>
+      </c>
+      <c r="I272" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="B275" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="C275" t="n">
         <v>3.059</v>
       </c>
       <c r="D275" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="E275" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="F275" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G275" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H275" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I275" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="B278" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="C278" t="n">
         <v>3.913</v>
       </c>
       <c r="D278" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="E278" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F278" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="G278" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H278" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I278" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="B281" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="C281" t="n">
         <v>3.682</v>
       </c>
       <c r="D281" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E281" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F281" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="G281" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H281" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I281" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="B284" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="C284" t="n">
         <v>2.611</v>
       </c>
       <c r="D284" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E284" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F284" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G284" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="H284" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I284" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="B287" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C287" t="n">
         <v>3.5</v>
       </c>
       <c r="D287" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E287" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F287" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G287" t="s">
+        <v>15</v>
+      </c>
+      <c r="H287" t="s">
         <v>14</v>
       </c>
-      <c r="H287" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+      <c r="I287" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="B290" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="C290" t="n">
         <v>2.841</v>
       </c>
       <c r="D290" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="E290" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="F290" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="G290" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="H290" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I290" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="B293" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C293" t="n">
         <v>3.714</v>
       </c>
       <c r="D293" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="E293" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="F293" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="G293" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H293" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I293" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="B296" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="C296" t="n">
         <v>3.388</v>
       </c>
       <c r="D296" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="E296" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F296" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="G296" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H296" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I296" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="A298" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="B299" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="C299" t="n">
         <v>2.9445</v>
       </c>
       <c r="D299" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="E299" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="F299" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G299" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="H299" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I299" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="A301" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="B302" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="C302" t="n">
         <v>2.857</v>
       </c>
       <c r="D302" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="E302" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F302" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G302" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="H302" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I302" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="A304" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="B305" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="C305" t="n">
         <v>3.795</v>
       </c>
       <c r="D305" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="E305" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="F305" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="G305" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="H305" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>426</v>
+      </c>
+      <c r="I305" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="A307" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="B308" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C308" t="n">
         <v>4</v>
       </c>
       <c r="D308" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E308" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F308" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G308" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H308" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I308" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="A310" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="B311" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="C311" t="n">
         <v>3.483</v>
       </c>
       <c r="D311" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="E311" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="F311" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="G311" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H311" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>432</v>
+      </c>
+      <c r="I311" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="A313" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="B314" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="C314" t="n">
         <v>2.375</v>
       </c>
       <c r="D314" t="s">
+        <v>15</v>
+      </c>
+      <c r="E314" t="s">
+        <v>107</v>
+      </c>
+      <c r="F314" t="s">
+        <v>12</v>
+      </c>
+      <c r="G314" t="s">
+        <v>15</v>
+      </c>
+      <c r="H314" t="s">
         <v>14</v>
       </c>
-      <c r="E314" t="s">
-        <v>100</v>
-      </c>
-      <c r="F314" t="s">
-        <v>11</v>
-      </c>
-      <c r="G314" t="s">
-        <v>14</v>
-      </c>
-      <c r="H314" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+      <c r="I314" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="A316" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="B317" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="C317" t="n">
         <v>3.13</v>
       </c>
       <c r="D317" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="E317" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="F317" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="G317" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H317" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I317" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="A319" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="B320" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C320" t="n">
         <v>3.913</v>
       </c>
       <c r="D320" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="E320" t="s">
-        <v>417</v>
+        <v>237</v>
       </c>
       <c r="F320" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G320" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H320" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I320" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="A322" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="B323" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C323" t="n">
         <v>3.167</v>
       </c>
       <c r="D323" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="E323" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F323" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G323" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H323" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I323" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="A325" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
       <c r="B326" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="C326" t="n">
         <v>3.524</v>
       </c>
       <c r="D326" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="E326" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="F326" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G326" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H326" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I326" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="A328" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="C329" t="n">
         <v>3.1407</v>
       </c>
       <c r="D329" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="E329" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="F329" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="G329" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="H329" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
+        <v>450</v>
+      </c>
+      <c r="I329" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C330" t="n">
         <v>3.9774</v>
       </c>
       <c r="D330" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="E330" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F330" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G330" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H330" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I330" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="A332" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="C333" t="n">
         <v>3</v>
       </c>
       <c r="D333" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="E333" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="F333" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G333" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H333" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+        <v>458</v>
+      </c>
+      <c r="I333" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="C334" t="n">
         <v>3.0835</v>
       </c>
       <c r="D334" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E334" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F334" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G334" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H334" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I334" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="C335" t="n">
         <v>3.071</v>
       </c>
       <c r="D335" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E335" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F335" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="G335" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H335" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I335" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
       <c r="A337" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
       <c r="B338" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C338" t="n">
         <v>3.529</v>
       </c>
       <c r="D338" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="E338" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="F338" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G338" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H338" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I338" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
       <c r="A340" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="B341" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="C341" t="n">
         <v>3.643</v>
       </c>
       <c r="D341" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="E341" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="F341" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G341" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H341" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I341" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
       <c r="B342" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="C342" t="n">
         <v>3.722</v>
       </c>
       <c r="D342" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E342" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F342" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G342" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H342" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I342" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="B343" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="C343" t="n">
         <v>3.217</v>
       </c>
       <c r="D343" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E343" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="F343" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G343" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H343" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
+        <v>458</v>
+      </c>
+      <c r="I343" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
       <c r="A345" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
       <c r="B346" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C346" t="n">
         <v>2.833</v>
       </c>
       <c r="D346" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E346" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F346" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G346" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H346" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I346" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
       <c r="A348" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
       <c r="B349" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C349" t="n">
         <v>4</v>
       </c>
       <c r="D349" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E349" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F349" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G349" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H349" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I349" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
       <c r="A351" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
       <c r="B352" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="C352" t="n">
         <v>3.333</v>
       </c>
       <c r="D352" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E352" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F352" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G352" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H352" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I352" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
       <c r="B353" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="C353" t="n">
         <v>3.192</v>
       </c>
       <c r="D353" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E353" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F353" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G353" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H353" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I353" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
       <c r="A355" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
       <c r="B356" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="C356" t="n">
         <v>3.4405</v>
       </c>
       <c r="D356" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="E356" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="F356" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="G356" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="H356" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
+        <v>480</v>
+      </c>
+      <c r="I356" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
       <c r="A358" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
       <c r="B359" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C359" t="n">
         <v>3.533</v>
       </c>
       <c r="D359" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E359" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F359" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G359" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H359" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I359" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
       <c r="B360" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="C360" t="n">
         <v>3</v>
       </c>
       <c r="D360" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E360" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F360" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G360" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H360" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I360" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
       <c r="A362" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
       <c r="B363" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C363" t="n">
         <v>3.636</v>
       </c>
       <c r="D363" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E363" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F363" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G363" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H363" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I363" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
       <c r="B364" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="C364" t="n">
         <v>3.546</v>
       </c>
       <c r="D364" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="E364" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F364" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G364" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H364" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I364" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
       <c r="A366" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
       <c r="B367" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="C367" t="n">
         <v>3.5</v>
       </c>
       <c r="D367" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E367" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F367" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G367" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H367" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I367" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
       <c r="A369" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
       <c r="B370" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="C370" t="n">
         <v>2.9545</v>
       </c>
       <c r="D370" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="E370" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="F370" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G370" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H370" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I370" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
       <c r="A372" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
       <c r="B373" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="C373" t="n">
         <v>3.1125</v>
       </c>
       <c r="D373" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E373" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F373" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G373" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H373" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I373" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
       <c r="A375" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
       <c r="B376" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="C376" t="n">
         <v>2.75</v>
       </c>
       <c r="D376" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E376" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F376" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G376" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H376" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I376" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
       <c r="A378" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
       <c r="B379" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="C379" t="n">
         <v>3.875</v>
       </c>
       <c r="D379" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E379" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F379" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G379" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H379" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I379" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
       <c r="A381" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
       <c r="B382" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="C382" t="n">
         <v>3.833</v>
       </c>
       <c r="D382" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E382" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F382" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G382" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H382" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I382" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
       <c r="B383" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="C383" t="n">
         <v>4</v>
       </c>
       <c r="D383" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E383" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F383" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G383" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H383" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I383" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
       <c r="A385" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
       <c r="B386" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="C386" t="n">
         <v>3.615</v>
       </c>
       <c r="D386" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="E386" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="F386" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G386" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H386" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I386" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
       <c r="A388" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="B389" t="s">
         <v>472</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8">
-      <c r="B389" t="s">
-        <v>447</v>
       </c>
       <c r="C389" t="n">
         <v>3.571</v>
       </c>
       <c r="D389" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E389" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="F389" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G389" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H389" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I389" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
       <c r="A391" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
       <c r="B392" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="C392" t="n">
         <v>3.75</v>
       </c>
       <c r="D392" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E392" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F392" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G392" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H392" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I392" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
       <c r="A394" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
       <c r="B395" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="C395" t="n">
         <v>3.286</v>
       </c>
       <c r="D395" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E395" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F395" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G395" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H395" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I395" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
       <c r="A397" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
       <c r="B398" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C398" t="n">
         <v>3.875</v>
       </c>
       <c r="D398" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E398" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F398" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G398" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H398" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I398" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
       <c r="A400" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
       <c r="B401" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C401" t="n">
         <v>4</v>
       </c>
       <c r="D401" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E401" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F401" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G401" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H401" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I401" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
       <c r="A403" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
       <c r="B404" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="C404" t="n">
         <v>4</v>
       </c>
       <c r="D404" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E404" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F404" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G404" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H404" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I404" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
       <c r="A406" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
       <c r="B407" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="C407" t="n">
         <v>4</v>
       </c>
       <c r="D407" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E407" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F407" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G407" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H407" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I407" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
       <c r="A409" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
       <c r="B410" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="C410" t="n">
         <v>4</v>
       </c>
       <c r="D410" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E410" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F410" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G410" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H410" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I410" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
       <c r="A412" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
       <c r="B413" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="C413" t="n">
         <v>3.688</v>
       </c>
       <c r="D413" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="E413" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F413" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G413" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H413" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I413" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
       <c r="A415" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
       <c r="B416" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="C416" t="n">
         <v>3.8</v>
       </c>
       <c r="D416" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E416" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F416" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G416" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H416" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I416" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
       <c r="A418" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
       <c r="B419" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="C419" t="n">
         <v>3.8665</v>
       </c>
       <c r="D419" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="E419" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="F419" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G419" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H419" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I419" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
       <c r="A421" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
       <c r="B422" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="C422" t="n">
         <v>4</v>
       </c>
       <c r="D422" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E422" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F422" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G422" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H422" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I422" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
       <c r="A424" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
       <c r="B425" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="C425" t="n">
         <v>4</v>
       </c>
       <c r="D425" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E425" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F425" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G425" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H425" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I425" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
       <c r="A427" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
       <c r="B428" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="C428" t="n">
         <v>4</v>
       </c>
       <c r="D428" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E428" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F428" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G428" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H428" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I428" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
       <c r="A430" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
       <c r="B431" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="C431" t="n">
         <v>3.68</v>
       </c>
       <c r="D431" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="E431" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="F431" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G431" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H431" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I431" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9">
       <c r="A433" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
       <c r="B434" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="C434" t="n">
         <v>3.667</v>
       </c>
       <c r="D434" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E434" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F434" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G434" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H434" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I434" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9">
       <c r="A436" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
       <c r="B437" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="C437" t="n">
         <v>3.833</v>
       </c>
       <c r="D437" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E437" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F437" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G437" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H437" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I437" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
       <c r="A439" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
       <c r="B440" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="C440" t="n">
         <v>4</v>
       </c>
       <c r="D440" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E440" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F440" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G440" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H440" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I440" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9">
       <c r="A442" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
       <c r="B443" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="C443" t="n">
         <v>3.727</v>
       </c>
       <c r="D443" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E443" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F443" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G443" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H443" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I443" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
       <c r="B444" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="C444" t="n">
         <v>3.727</v>
       </c>
       <c r="D444" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E444" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F444" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G444" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H444" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I444" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
       <c r="A446" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
       <c r="B447" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="C447" t="n">
         <v>3.042</v>
       </c>
       <c r="D447" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="E447" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F447" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G447" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H447" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I447" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
       <c r="B448" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="C448" t="n">
         <v>3.778</v>
       </c>
       <c r="D448" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E448" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F448" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G448" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H448" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I448" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
       <c r="A450" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9">
       <c r="B451" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="C451" t="n">
         <v>3.133</v>
       </c>
       <c r="D451" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E451" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F451" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G451" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H451" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I451" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
       <c r="A453" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9">
       <c r="B454" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="C454" t="n">
         <v>3.565</v>
       </c>
       <c r="D454" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="E454" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F454" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="G454" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H454" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I454" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
       <c r="B455" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="C455" t="n">
         <v>3.882</v>
       </c>
       <c r="D455" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="E455" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="F455" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G455" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H455" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I455" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9">
       <c r="A457" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
       <c r="B458" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="C458" t="n">
         <v>3.864</v>
       </c>
       <c r="D458" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E458" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="F458" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="G458" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H458" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I458" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
       <c r="B459" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="C459" t="n">
         <v>3.3335</v>
       </c>
       <c r="D459" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="E459" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F459" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="G459" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H459" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8">
+        <v>280</v>
+      </c>
+      <c r="I459" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
       <c r="A461" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
       <c r="B462" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="C462" t="n">
         <v>3.692</v>
       </c>
       <c r="D462" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E462" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="F462" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G462" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H462" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I462" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
       <c r="A464" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
       <c r="B465" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="C465" t="n">
         <v>3.941</v>
       </c>
       <c r="D465" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="E465" t="s">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="F465" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G465" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H465" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I465" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
       <c r="A467" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
       <c r="B468" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="C468" t="n">
         <v>2.222</v>
       </c>
       <c r="D468" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="E468" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F468" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="G468" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H468" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8">
+        <v>300</v>
+      </c>
+      <c r="I468" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
       <c r="A470" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
       <c r="B471" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="C471" t="n">
         <v>3.438</v>
       </c>
       <c r="D471" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E471" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="F471" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G471" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H471" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I471" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
       <c r="A473" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
       <c r="B474" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="C474" t="n">
         <v>2.913</v>
       </c>
       <c r="D474" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="E474" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="F474" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="G474" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H474" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8">
+        <v>228</v>
+      </c>
+      <c r="I474" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
       <c r="A476" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
       <c r="B477" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="C477" t="n">
         <v>2.533</v>
       </c>
       <c r="D477" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="E477" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F477" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G477" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H477" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I477" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
       <c r="A479" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
       <c r="B480" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="C480" t="n">
         <v>3.768</v>
       </c>
       <c r="D480" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="E480" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="F480" t="s">
-        <v>537</v>
+        <v>149</v>
       </c>
       <c r="G480" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="H480" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8">
+        <v>275</v>
+      </c>
+      <c r="I480" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
       <c r="A482" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
       <c r="B483" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="C483" t="n">
         <v>3.64</v>
       </c>
       <c r="D483" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="E483" t="s">
+        <v>295</v>
+      </c>
+      <c r="F483" t="s">
+        <v>185</v>
+      </c>
+      <c r="G483" t="s">
+        <v>15</v>
+      </c>
+      <c r="H483" t="s">
+        <v>15</v>
+      </c>
+      <c r="I483" t="s">
         <v>280</v>
       </c>
-      <c r="F483" t="s">
-        <v>176</v>
-      </c>
-      <c r="G483" t="s">
-        <v>14</v>
-      </c>
-      <c r="H483" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="485" spans="1:8">
+    </row>
+    <row r="485" spans="1:9">
       <c r="A485" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
       <c r="B486" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="C486" t="n">
         <v>3.111</v>
       </c>
       <c r="D486" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="E486" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F486" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G486" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H486" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I486" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
       <c r="A488" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
       <c r="B489" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="C489" t="n">
         <v>3.417</v>
       </c>
       <c r="D489" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="E489" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F489" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G489" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H489" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I489" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
       <c r="A491" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
       <c r="B492" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="C492" t="n">
         <v>3.85</v>
       </c>
       <c r="D492" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E492" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F492" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G492" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H492" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I492" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
       <c r="A494" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
       <c r="B495" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="C495" t="n">
         <v>3.556</v>
       </c>
       <c r="D495" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E495" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F495" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G495" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H495" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I495" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
       <c r="A497" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
       <c r="B498" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="C498" t="n">
         <v>4</v>
       </c>
       <c r="D498" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E498" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F498" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G498" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H498" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I498" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9">
       <c r="A500" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
       <c r="B501" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="C501" t="n">
         <v>3.462</v>
       </c>
       <c r="D501" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E501" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F501" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G501" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H501" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I501" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
       <c r="A503" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9">
       <c r="B504" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="C504" t="n">
         <v>4</v>
       </c>
       <c r="D504" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E504" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F504" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G504" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H504" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I504" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
       <c r="A506" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
       <c r="B507" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="C507" t="n">
         <v>3.2715</v>
       </c>
       <c r="D507" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="E507" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="F507" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="G507" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H507" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I507" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
       <c r="A509" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
       <c r="B510" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C510" t="n">
         <v>2.9747</v>
       </c>
       <c r="D510" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="E510" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="F510" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="G510" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="H510" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8">
+        <v>387</v>
+      </c>
+      <c r="I510" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
       <c r="A512" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9">
       <c r="B513" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C513" t="n">
         <v>3.129</v>
       </c>
       <c r="D513" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="E513" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="F513" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="G513" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H513" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I513" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9">
       <c r="A515" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9">
       <c r="B516" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="C516" t="n">
         <v>2.9</v>
       </c>
       <c r="D516" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E516" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="F516" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G516" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H516" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="517" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I516" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9">
       <c r="B517" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="C517" t="n">
         <v>3.167</v>
       </c>
       <c r="D517" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E517" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F517" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G517" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H517" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I517" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9">
       <c r="B518" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="C518" t="n">
         <v>3.857</v>
       </c>
       <c r="D518" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="E518" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F518" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G518" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H518" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I518" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9">
       <c r="A520" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9">
       <c r="B521" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="C521" t="n">
         <v>3.175</v>
       </c>
       <c r="D521" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="E521" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F521" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G521" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="H521" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I521" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9">
       <c r="B522" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="C522" t="n">
         <v>2.893</v>
       </c>
       <c r="D522" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E522" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="F522" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G522" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H522" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I522" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
       <c r="A524" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
       <c r="B525" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="C525" t="n">
         <v>3.7993</v>
       </c>
       <c r="D525" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="E525" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="F525" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="G525" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H525" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I525" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9">
       <c r="A527" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9">
       <c r="B528" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="C528" t="n">
         <v>3.3</v>
       </c>
       <c r="D528" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="E528" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F528" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G528" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H528" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I528" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9">
       <c r="A530" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9">
       <c r="B531" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="C531" t="n">
         <v>2.867</v>
       </c>
       <c r="D531" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E531" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F531" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G531" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H531" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I531" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
       <c r="A533" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
       <c r="B534" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C534" t="n">
         <v>3.417</v>
       </c>
       <c r="D534" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="E534" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F534" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G534" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H534" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I534" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
       <c r="A536" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
       <c r="B537" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="C537" t="n">
         <v>3.312</v>
       </c>
       <c r="D537" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E537" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F537" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G537" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H537" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I537" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
       <c r="A539" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
       <c r="B540" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="C540" t="n">
         <v>3.875</v>
       </c>
       <c r="D540" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E540" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F540" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G540" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H540" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I540" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9">
       <c r="A542" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9">
       <c r="B543" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="C543" t="n">
         <v>4</v>
       </c>
       <c r="D543" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E543" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F543" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G543" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H543" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I543" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
       <c r="A545" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9">
       <c r="B546" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="C546" t="n">
         <v>4</v>
       </c>
       <c r="D546" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E546" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F546" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G546" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H546" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I546" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9">
       <c r="A548" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9">
       <c r="B549" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="C549" t="n">
         <v>2.933</v>
       </c>
       <c r="D549" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E549" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F549" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G549" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H549" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I549" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
       <c r="A551" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9">
       <c r="B552" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="C552" t="n">
         <v>3.909</v>
       </c>
       <c r="D552" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E552" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F552" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G552" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H552" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I552" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9">
       <c r="A554" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9">
       <c r="B555" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="C555" t="n">
         <v>3.5</v>
       </c>
       <c r="D555" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E555" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F555" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G555" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H555" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="557" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I555" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9">
       <c r="A557" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9">
       <c r="B558" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="C558" t="n">
         <v>3.5</v>
       </c>
       <c r="D558" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E558" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="F558" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="G558" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H558" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="560" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I558" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9">
       <c r="A560" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9">
       <c r="B561" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="C561" t="n">
         <v>3.235</v>
       </c>
       <c r="D561" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="E561" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="F561" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G561" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H561" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="563" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I561" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9">
       <c r="A563" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="564" spans="1:8">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9">
       <c r="B564" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="C564" t="n">
         <v>3.8</v>
       </c>
       <c r="D564" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E564" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F564" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G564" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H564" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="566" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I564" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9">
       <c r="A566" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9">
       <c r="B567" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="C567" t="n">
         <v>3.875</v>
       </c>
       <c r="D567" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E567" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F567" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G567" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H567" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I567" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Spring2014/Output/Spring2014 AR.xlsx
+++ b/GradeDistributionsDB/Spring2014/Output/Spring2014 AR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="610">
   <si>
     <t>Course</t>
   </si>
@@ -1129,6 +1129,15 @@
     <t>47.06%</t>
   </si>
   <si>
+    <t>COSC-442</t>
+  </si>
+  <si>
+    <t>FERNANDEZ-SOLIS J</t>
+  </si>
+  <si>
+    <t>92.59%</t>
+  </si>
+  <si>
     <t>COSC-443</t>
   </si>
   <si>
@@ -1268,6 +1277,9 @@
   </si>
   <si>
     <t>8.70%</t>
+  </si>
+  <si>
+    <t>COSC-648</t>
   </si>
   <si>
     <t>COSC-650</t>
@@ -2168,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H567"/>
+  <dimension ref="A1:H573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5298,16 +5310,16 @@
         <v>372</v>
       </c>
       <c r="C278" t="n">
-        <v>3.913</v>
+        <v>3.926</v>
       </c>
       <c r="D278" t="s">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="E278" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
       <c r="F278" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="G278" t="s">
         <v>14</v>
@@ -5318,24 +5330,24 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="B281" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="C281" t="n">
-        <v>3.682</v>
+        <v>3.913</v>
       </c>
       <c r="D281" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="E281" t="s">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="F281" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="G281" t="s">
         <v>14</v>
@@ -5346,27 +5358,27 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="B284" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="C284" t="n">
-        <v>2.611</v>
+        <v>3.682</v>
       </c>
       <c r="D284" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E284" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="F284" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="G284" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="H284" t="s">
         <v>14</v>
@@ -5374,83 +5386,83 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="B287" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C287" t="n">
-        <v>3.5</v>
+        <v>2.611</v>
       </c>
       <c r="D287" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="E287" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="F287" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="G287" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="H287" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="B290" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C290" t="n">
-        <v>2.841</v>
+        <v>3.5</v>
       </c>
       <c r="D290" t="s">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="E290" t="s">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="F290" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="G290" t="s">
-        <v>383</v>
+        <v>14</v>
       </c>
       <c r="H290" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="293" spans="1:8">
       <c r="B293" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="C293" t="n">
-        <v>3.714</v>
+        <v>2.841</v>
       </c>
       <c r="D293" t="s">
+        <v>383</v>
+      </c>
+      <c r="E293" t="s">
+        <v>384</v>
+      </c>
+      <c r="F293" t="s">
         <v>385</v>
       </c>
-      <c r="E293" t="s">
+      <c r="G293" t="s">
         <v>386</v>
-      </c>
-      <c r="F293" t="s">
-        <v>387</v>
-      </c>
-      <c r="G293" t="s">
-        <v>14</v>
       </c>
       <c r="H293" t="s">
         <v>14</v>
@@ -5458,24 +5470,24 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="B296" t="s">
+        <v>350</v>
+      </c>
+      <c r="C296" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D296" t="s">
+        <v>388</v>
+      </c>
+      <c r="E296" t="s">
         <v>389</v>
       </c>
-      <c r="C296" t="n">
-        <v>3.388</v>
-      </c>
-      <c r="D296" t="s">
+      <c r="F296" t="s">
         <v>390</v>
-      </c>
-      <c r="E296" t="s">
-        <v>102</v>
-      </c>
-      <c r="F296" t="s">
-        <v>391</v>
       </c>
       <c r="G296" t="s">
         <v>14</v>
@@ -5486,220 +5498,220 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="B299" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C299" t="n">
-        <v>2.9445</v>
+        <v>3.388</v>
       </c>
       <c r="D299" t="s">
         <v>393</v>
       </c>
       <c r="E299" t="s">
+        <v>102</v>
+      </c>
+      <c r="F299" t="s">
         <v>394</v>
       </c>
-      <c r="F299" t="s">
-        <v>108</v>
-      </c>
       <c r="G299" t="s">
-        <v>395</v>
+        <v>14</v>
       </c>
       <c r="H299" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="B302" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="C302" t="n">
-        <v>2.857</v>
+        <v>2.9445</v>
       </c>
       <c r="D302" t="s">
+        <v>396</v>
+      </c>
+      <c r="E302" t="s">
         <v>397</v>
       </c>
-      <c r="E302" t="s">
-        <v>126</v>
-      </c>
       <c r="F302" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="G302" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H302" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="305" spans="1:8">
       <c r="B305" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="C305" t="n">
-        <v>3.795</v>
+        <v>2.857</v>
       </c>
       <c r="D305" t="s">
         <v>400</v>
       </c>
       <c r="E305" t="s">
-        <v>401</v>
+        <v>126</v>
       </c>
       <c r="F305" t="s">
-        <v>402</v>
+        <v>91</v>
       </c>
       <c r="G305" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H305" t="s">
-        <v>403</v>
+        <v>14</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="308" spans="1:8">
       <c r="B308" t="s">
-        <v>308</v>
+        <v>402</v>
       </c>
       <c r="C308" t="n">
-        <v>4</v>
+        <v>3.795</v>
       </c>
       <c r="D308" t="s">
-        <v>56</v>
+        <v>403</v>
       </c>
       <c r="E308" t="s">
-        <v>14</v>
+        <v>404</v>
       </c>
       <c r="F308" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="G308" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
       <c r="H308" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="311" spans="1:8">
       <c r="B311" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="C311" t="n">
-        <v>3.483</v>
+        <v>4</v>
       </c>
       <c r="D311" t="s">
-        <v>406</v>
+        <v>56</v>
       </c>
       <c r="E311" t="s">
-        <v>407</v>
+        <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>408</v>
+        <v>14</v>
       </c>
       <c r="G311" t="s">
         <v>14</v>
       </c>
       <c r="H311" t="s">
-        <v>409</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="314" spans="1:8">
       <c r="B314" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="C314" t="n">
-        <v>2.375</v>
+        <v>3.483</v>
       </c>
       <c r="D314" t="s">
-        <v>14</v>
+        <v>409</v>
       </c>
       <c r="E314" t="s">
-        <v>100</v>
+        <v>410</v>
       </c>
       <c r="F314" t="s">
-        <v>11</v>
+        <v>411</v>
       </c>
       <c r="G314" t="s">
         <v>14</v>
       </c>
       <c r="H314" t="s">
-        <v>13</v>
+        <v>412</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="317" spans="1:8">
       <c r="B317" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="C317" t="n">
-        <v>3.13</v>
+        <v>2.375</v>
       </c>
       <c r="D317" t="s">
-        <v>412</v>
+        <v>14</v>
       </c>
       <c r="E317" t="s">
-        <v>413</v>
+        <v>100</v>
       </c>
       <c r="F317" t="s">
-        <v>414</v>
+        <v>11</v>
       </c>
       <c r="G317" t="s">
         <v>14</v>
       </c>
       <c r="H317" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="B320" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="C320" t="n">
-        <v>3.913</v>
+        <v>3.13</v>
       </c>
       <c r="D320" t="s">
+        <v>415</v>
+      </c>
+      <c r="E320" t="s">
         <v>416</v>
       </c>
-      <c r="E320" t="s">
+      <c r="F320" t="s">
         <v>417</v>
-      </c>
-      <c r="F320" t="s">
-        <v>14</v>
       </c>
       <c r="G320" t="s">
         <v>14</v>
@@ -5715,19 +5727,19 @@
     </row>
     <row r="323" spans="1:8">
       <c r="B323" t="s">
-        <v>377</v>
+        <v>283</v>
       </c>
       <c r="C323" t="n">
-        <v>3.167</v>
+        <v>3.913</v>
       </c>
       <c r="D323" t="s">
         <v>419</v>
       </c>
       <c r="E323" t="s">
-        <v>96</v>
+        <v>420</v>
       </c>
       <c r="F323" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="G323" t="s">
         <v>14</v>
@@ -5738,21 +5750,21 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="326" spans="1:8">
       <c r="B326" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C326" t="n">
-        <v>3.524</v>
+        <v>4</v>
       </c>
       <c r="D326" t="s">
-        <v>421</v>
+        <v>56</v>
       </c>
       <c r="E326" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
       <c r="F326" t="s">
         <v>14</v>
@@ -5771,494 +5783,494 @@
     </row>
     <row r="329" spans="1:8">
       <c r="B329" t="s">
+        <v>380</v>
+      </c>
+      <c r="C329" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D329" t="s">
         <v>423</v>
       </c>
-      <c r="C329" t="n">
-        <v>3.1407</v>
-      </c>
-      <c r="D329" t="s">
+      <c r="E329" t="s">
+        <v>96</v>
+      </c>
+      <c r="F329" t="s">
+        <v>140</v>
+      </c>
+      <c r="G329" t="s">
+        <v>14</v>
+      </c>
+      <c r="H329" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" t="s">
         <v>424</v>
       </c>
-      <c r="E329" t="s">
+    </row>
+    <row r="332" spans="1:8">
+      <c r="B332" t="s">
+        <v>378</v>
+      </c>
+      <c r="C332" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="D332" t="s">
         <v>425</v>
       </c>
-      <c r="F329" t="s">
+      <c r="E332" t="s">
+        <v>397</v>
+      </c>
+      <c r="F332" t="s">
+        <v>14</v>
+      </c>
+      <c r="G332" t="s">
+        <v>14</v>
+      </c>
+      <c r="H332" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" t="s">
         <v>426</v>
-      </c>
-      <c r="G329" t="s">
-        <v>427</v>
-      </c>
-      <c r="H329" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
-      <c r="B330" t="s">
-        <v>110</v>
-      </c>
-      <c r="C330" t="n">
-        <v>3.9774</v>
-      </c>
-      <c r="D330" t="s">
-        <v>429</v>
-      </c>
-      <c r="E330" t="s">
-        <v>113</v>
-      </c>
-      <c r="F330" t="s">
-        <v>14</v>
-      </c>
-      <c r="G330" t="s">
-        <v>14</v>
-      </c>
-      <c r="H330" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
-      <c r="A332" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
-      <c r="B333" t="s">
-        <v>431</v>
-      </c>
-      <c r="C333" t="n">
-        <v>3</v>
-      </c>
-      <c r="D333" t="s">
-        <v>432</v>
-      </c>
-      <c r="E333" t="s">
-        <v>433</v>
-      </c>
-      <c r="F333" t="s">
-        <v>145</v>
-      </c>
-      <c r="G333" t="s">
-        <v>14</v>
-      </c>
-      <c r="H333" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
-      <c r="B334" t="s">
-        <v>435</v>
-      </c>
-      <c r="C334" t="n">
-        <v>3.0835</v>
-      </c>
-      <c r="D334" t="s">
-        <v>135</v>
-      </c>
-      <c r="E334" t="s">
-        <v>90</v>
-      </c>
-      <c r="F334" t="s">
-        <v>165</v>
-      </c>
-      <c r="G334" t="s">
-        <v>14</v>
-      </c>
-      <c r="H334" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:8">
       <c r="B335" t="s">
+        <v>427</v>
+      </c>
+      <c r="C335" t="n">
+        <v>3.1407</v>
+      </c>
+      <c r="D335" t="s">
+        <v>428</v>
+      </c>
+      <c r="E335" t="s">
+        <v>429</v>
+      </c>
+      <c r="F335" t="s">
+        <v>430</v>
+      </c>
+      <c r="G335" t="s">
+        <v>431</v>
+      </c>
+      <c r="H335" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="B336" t="s">
+        <v>110</v>
+      </c>
+      <c r="C336" t="n">
+        <v>3.9774</v>
+      </c>
+      <c r="D336" t="s">
+        <v>433</v>
+      </c>
+      <c r="E336" t="s">
+        <v>113</v>
+      </c>
+      <c r="F336" t="s">
+        <v>14</v>
+      </c>
+      <c r="G336" t="s">
+        <v>14</v>
+      </c>
+      <c r="H336" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="B339" t="s">
+        <v>435</v>
+      </c>
+      <c r="C339" t="n">
+        <v>3</v>
+      </c>
+      <c r="D339" t="s">
         <v>436</v>
       </c>
-      <c r="C335" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="D335" t="s">
-        <v>108</v>
-      </c>
-      <c r="E335" t="s">
-        <v>271</v>
-      </c>
-      <c r="F335" t="s">
+      <c r="E339" t="s">
         <v>437</v>
       </c>
-      <c r="G335" t="s">
-        <v>14</v>
-      </c>
-      <c r="H335" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
-      <c r="A337" t="s">
+      <c r="F339" t="s">
+        <v>145</v>
+      </c>
+      <c r="G339" t="s">
+        <v>14</v>
+      </c>
+      <c r="H339" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
-      <c r="B338" t="s">
-        <v>204</v>
-      </c>
-      <c r="C338" t="n">
-        <v>3.529</v>
-      </c>
-      <c r="D338" t="s">
+    <row r="340" spans="1:8">
+      <c r="B340" t="s">
         <v>439</v>
       </c>
-      <c r="E338" t="s">
-        <v>370</v>
-      </c>
-      <c r="F338" t="s">
-        <v>14</v>
-      </c>
-      <c r="G338" t="s">
-        <v>14</v>
-      </c>
-      <c r="H338" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
-      <c r="A340" t="s">
-        <v>440</v>
+      <c r="C340" t="n">
+        <v>3.0835</v>
+      </c>
+      <c r="D340" t="s">
+        <v>135</v>
+      </c>
+      <c r="E340" t="s">
+        <v>90</v>
+      </c>
+      <c r="F340" t="s">
+        <v>165</v>
+      </c>
+      <c r="G340" t="s">
+        <v>14</v>
+      </c>
+      <c r="H340" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="341" spans="1:8">
       <c r="B341" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C341" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="D341" t="s">
+        <v>108</v>
+      </c>
+      <c r="E341" t="s">
+        <v>271</v>
+      </c>
+      <c r="F341" t="s">
+        <v>441</v>
+      </c>
+      <c r="G341" t="s">
+        <v>14</v>
+      </c>
+      <c r="H341" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="B344" t="s">
+        <v>204</v>
+      </c>
+      <c r="C344" t="n">
+        <v>3.529</v>
+      </c>
+      <c r="D344" t="s">
+        <v>443</v>
+      </c>
+      <c r="E344" t="s">
+        <v>370</v>
+      </c>
+      <c r="F344" t="s">
+        <v>14</v>
+      </c>
+      <c r="G344" t="s">
+        <v>14</v>
+      </c>
+      <c r="H344" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="B347" t="s">
+        <v>440</v>
+      </c>
+      <c r="C347" t="n">
         <v>3.643</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D347" t="s">
         <v>346</v>
       </c>
-      <c r="E341" t="s">
-        <v>441</v>
-      </c>
-      <c r="F341" t="s">
-        <v>14</v>
-      </c>
-      <c r="G341" t="s">
-        <v>14</v>
-      </c>
-      <c r="H341" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
-      <c r="B342" t="s">
-        <v>442</v>
-      </c>
-      <c r="C342" t="n">
+      <c r="E347" t="s">
+        <v>445</v>
+      </c>
+      <c r="F347" t="s">
+        <v>14</v>
+      </c>
+      <c r="G347" t="s">
+        <v>14</v>
+      </c>
+      <c r="H347" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="B348" t="s">
+        <v>446</v>
+      </c>
+      <c r="C348" t="n">
         <v>3.722</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D348" t="s">
         <v>59</v>
       </c>
-      <c r="E342" t="s">
+      <c r="E348" t="s">
         <v>58</v>
       </c>
-      <c r="F342" t="s">
-        <v>14</v>
-      </c>
-      <c r="G342" t="s">
-        <v>14</v>
-      </c>
-      <c r="H342" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
-      <c r="B343" t="s">
-        <v>443</v>
-      </c>
-      <c r="C343" t="n">
-        <v>3.217</v>
-      </c>
-      <c r="D343" t="s">
-        <v>64</v>
-      </c>
-      <c r="E343" t="s">
-        <v>432</v>
-      </c>
-      <c r="F343" t="s">
-        <v>135</v>
-      </c>
-      <c r="G343" t="s">
-        <v>14</v>
-      </c>
-      <c r="H343" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
-      <c r="A345" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
-      <c r="B346" t="s">
-        <v>153</v>
-      </c>
-      <c r="C346" t="n">
-        <v>2.833</v>
-      </c>
-      <c r="D346" t="s">
-        <v>38</v>
-      </c>
-      <c r="E346" t="s">
-        <v>91</v>
-      </c>
-      <c r="F346" t="s">
-        <v>38</v>
-      </c>
-      <c r="G346" t="s">
-        <v>165</v>
-      </c>
-      <c r="H346" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
-      <c r="A348" t="s">
-        <v>445</v>
+      <c r="F348" t="s">
+        <v>14</v>
+      </c>
+      <c r="G348" t="s">
+        <v>14</v>
+      </c>
+      <c r="H348" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="349" spans="1:8">
       <c r="B349" t="s">
-        <v>116</v>
+        <v>447</v>
       </c>
       <c r="C349" t="n">
-        <v>4</v>
+        <v>3.217</v>
       </c>
       <c r="D349" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E349" t="s">
-        <v>14</v>
+        <v>436</v>
       </c>
       <c r="F349" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="G349" t="s">
         <v>14</v>
       </c>
       <c r="H349" t="s">
-        <v>14</v>
+        <v>438</v>
       </c>
     </row>
     <row r="351" spans="1:8">
       <c r="A351" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="352" spans="1:8">
       <c r="B352" t="s">
-        <v>447</v>
+        <v>153</v>
       </c>
       <c r="C352" t="n">
+        <v>2.833</v>
+      </c>
+      <c r="D352" t="s">
+        <v>38</v>
+      </c>
+      <c r="E352" t="s">
+        <v>91</v>
+      </c>
+      <c r="F352" t="s">
+        <v>38</v>
+      </c>
+      <c r="G352" t="s">
+        <v>165</v>
+      </c>
+      <c r="H352" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="B355" t="s">
+        <v>116</v>
+      </c>
+      <c r="C355" t="n">
+        <v>4</v>
+      </c>
+      <c r="D355" t="s">
+        <v>56</v>
+      </c>
+      <c r="E355" t="s">
+        <v>14</v>
+      </c>
+      <c r="F355" t="s">
+        <v>14</v>
+      </c>
+      <c r="G355" t="s">
+        <v>14</v>
+      </c>
+      <c r="H355" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="B358" t="s">
+        <v>451</v>
+      </c>
+      <c r="C358" t="n">
         <v>3.333</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D358" t="s">
         <v>130</v>
       </c>
-      <c r="E352" t="s">
+      <c r="E358" t="s">
         <v>129</v>
       </c>
-      <c r="F352" t="s">
+      <c r="F358" t="s">
         <v>129</v>
       </c>
-      <c r="G352" t="s">
+      <c r="G358" t="s">
         <v>129</v>
       </c>
-      <c r="H352" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
-      <c r="B353" t="s">
-        <v>448</v>
-      </c>
-      <c r="C353" t="n">
-        <v>3.192</v>
-      </c>
-      <c r="D353" t="s">
-        <v>100</v>
-      </c>
-      <c r="E353" t="s">
-        <v>290</v>
-      </c>
-      <c r="F353" t="s">
-        <v>26</v>
-      </c>
-      <c r="G353" t="s">
-        <v>14</v>
-      </c>
-      <c r="H353" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="A355" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
-      <c r="B356" t="s">
-        <v>450</v>
-      </c>
-      <c r="C356" t="n">
-        <v>3.4405</v>
-      </c>
-      <c r="D356" t="s">
-        <v>451</v>
-      </c>
-      <c r="E356" t="s">
-        <v>452</v>
-      </c>
-      <c r="F356" t="s">
-        <v>453</v>
-      </c>
-      <c r="G356" t="s">
-        <v>454</v>
-      </c>
-      <c r="H356" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
-      <c r="A358" t="s">
-        <v>456</v>
+      <c r="H358" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="359" spans="1:8">
       <c r="B359" t="s">
+        <v>452</v>
+      </c>
+      <c r="C359" t="n">
+        <v>3.192</v>
+      </c>
+      <c r="D359" t="s">
+        <v>100</v>
+      </c>
+      <c r="E359" t="s">
+        <v>290</v>
+      </c>
+      <c r="F359" t="s">
+        <v>26</v>
+      </c>
+      <c r="G359" t="s">
+        <v>14</v>
+      </c>
+      <c r="H359" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="B362" t="s">
+        <v>454</v>
+      </c>
+      <c r="C362" t="n">
+        <v>3.4405</v>
+      </c>
+      <c r="D362" t="s">
+        <v>455</v>
+      </c>
+      <c r="E362" t="s">
+        <v>456</v>
+      </c>
+      <c r="F362" t="s">
+        <v>457</v>
+      </c>
+      <c r="G362" t="s">
+        <v>458</v>
+      </c>
+      <c r="H362" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="B365" t="s">
         <v>183</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C365" t="n">
         <v>3.533</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D365" t="s">
         <v>64</v>
       </c>
-      <c r="E359" t="s">
+      <c r="E365" t="s">
         <v>65</v>
       </c>
-      <c r="F359" t="s">
-        <v>14</v>
-      </c>
-      <c r="G359" t="s">
-        <v>14</v>
-      </c>
-      <c r="H359" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
-      <c r="B360" t="s">
-        <v>457</v>
-      </c>
-      <c r="C360" t="n">
+      <c r="F365" t="s">
+        <v>14</v>
+      </c>
+      <c r="G365" t="s">
+        <v>14</v>
+      </c>
+      <c r="H365" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="B366" t="s">
+        <v>461</v>
+      </c>
+      <c r="C366" t="n">
         <v>3</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D366" t="s">
         <v>38</v>
       </c>
-      <c r="E360" t="s">
+      <c r="E366" t="s">
         <v>65</v>
       </c>
-      <c r="F360" t="s">
+      <c r="F366" t="s">
         <v>140</v>
       </c>
-      <c r="G360" t="s">
+      <c r="G366" t="s">
         <v>145</v>
       </c>
-      <c r="H360" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
-      <c r="A362" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
-      <c r="B363" t="s">
+      <c r="H366" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="B369" t="s">
         <v>183</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C369" t="n">
         <v>3.636</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D369" t="s">
         <v>142</v>
       </c>
-      <c r="E363" t="s">
+      <c r="E369" t="s">
         <v>68</v>
       </c>
-      <c r="F363" t="s">
+      <c r="F369" t="s">
         <v>150</v>
       </c>
-      <c r="G363" t="s">
-        <v>14</v>
-      </c>
-      <c r="H363" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
-      <c r="B364" t="s">
-        <v>459</v>
-      </c>
-      <c r="C364" t="n">
-        <v>3.546</v>
-      </c>
-      <c r="D364" t="s">
-        <v>460</v>
-      </c>
-      <c r="E364" t="s">
-        <v>143</v>
-      </c>
-      <c r="F364" t="s">
-        <v>150</v>
-      </c>
-      <c r="G364" t="s">
-        <v>14</v>
-      </c>
-      <c r="H364" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
-      <c r="A366" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
-      <c r="B367" t="s">
-        <v>448</v>
-      </c>
-      <c r="C367" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D367" t="s">
-        <v>100</v>
-      </c>
-      <c r="E367" t="s">
-        <v>100</v>
-      </c>
-      <c r="F367" t="s">
-        <v>14</v>
-      </c>
-      <c r="G367" t="s">
-        <v>14</v>
-      </c>
-      <c r="H367" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
-      <c r="A369" t="s">
-        <v>462</v>
+      <c r="G369" t="s">
+        <v>14</v>
+      </c>
+      <c r="H369" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -6266,13 +6278,13 @@
         <v>463</v>
       </c>
       <c r="C370" t="n">
-        <v>2.9545</v>
+        <v>3.546</v>
       </c>
       <c r="D370" t="s">
-        <v>216</v>
+        <v>464</v>
       </c>
       <c r="E370" t="s">
-        <v>464</v>
+        <v>143</v>
       </c>
       <c r="F370" t="s">
         <v>150</v>
@@ -6291,19 +6303,19 @@
     </row>
     <row r="373" spans="1:8">
       <c r="B373" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C373" t="n">
-        <v>3.1125</v>
+        <v>3.5</v>
       </c>
       <c r="D373" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E373" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F373" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="G373" t="s">
         <v>14</v>
@@ -6314,24 +6326,24 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="376" spans="1:8">
       <c r="B376" t="s">
+        <v>467</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2.9545</v>
+      </c>
+      <c r="D376" t="s">
+        <v>216</v>
+      </c>
+      <c r="E376" t="s">
         <v>468</v>
       </c>
-      <c r="C376" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D376" t="s">
-        <v>91</v>
-      </c>
-      <c r="E376" t="s">
-        <v>91</v>
-      </c>
       <c r="F376" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G376" t="s">
         <v>14</v>
@@ -6347,19 +6359,19 @@
     </row>
     <row r="379" spans="1:8">
       <c r="B379" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C379" t="n">
-        <v>3.875</v>
+        <v>3.1125</v>
       </c>
       <c r="D379" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="E379" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="F379" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="G379" t="s">
         <v>14</v>
@@ -6370,100 +6382,100 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="382" spans="1:8">
       <c r="B382" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C382" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D382" t="s">
+        <v>91</v>
+      </c>
+      <c r="E382" t="s">
+        <v>91</v>
+      </c>
+      <c r="F382" t="s">
+        <v>100</v>
+      </c>
+      <c r="G382" t="s">
+        <v>14</v>
+      </c>
+      <c r="H382" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="A384" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="B385" t="s">
+        <v>467</v>
+      </c>
+      <c r="C385" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D385" t="s">
+        <v>22</v>
+      </c>
+      <c r="E385" t="s">
+        <v>12</v>
+      </c>
+      <c r="F385" t="s">
+        <v>14</v>
+      </c>
+      <c r="G385" t="s">
+        <v>14</v>
+      </c>
+      <c r="H385" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
+      <c r="A387" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="B388" t="s">
+        <v>470</v>
+      </c>
+      <c r="C388" t="n">
         <v>3.833</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D388" t="s">
         <v>134</v>
       </c>
-      <c r="E382" t="s">
+      <c r="E388" t="s">
         <v>135</v>
       </c>
-      <c r="F382" t="s">
-        <v>14</v>
-      </c>
-      <c r="G382" t="s">
-        <v>14</v>
-      </c>
-      <c r="H382" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8">
-      <c r="B383" t="s">
-        <v>448</v>
-      </c>
-      <c r="C383" t="n">
-        <v>4</v>
-      </c>
-      <c r="D383" t="s">
-        <v>56</v>
-      </c>
-      <c r="E383" t="s">
-        <v>14</v>
-      </c>
-      <c r="F383" t="s">
-        <v>14</v>
-      </c>
-      <c r="G383" t="s">
-        <v>14</v>
-      </c>
-      <c r="H383" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8">
-      <c r="A385" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8">
-      <c r="B386" t="s">
-        <v>466</v>
-      </c>
-      <c r="C386" t="n">
-        <v>3.615</v>
-      </c>
-      <c r="D386" t="s">
-        <v>251</v>
-      </c>
-      <c r="E386" t="s">
-        <v>252</v>
-      </c>
-      <c r="F386" t="s">
-        <v>14</v>
-      </c>
-      <c r="G386" t="s">
-        <v>14</v>
-      </c>
-      <c r="H386" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
-      <c r="A388" t="s">
-        <v>472</v>
+      <c r="F388" t="s">
+        <v>14</v>
+      </c>
+      <c r="G388" t="s">
+        <v>14</v>
+      </c>
+      <c r="H388" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="389" spans="1:8">
       <c r="B389" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C389" t="n">
-        <v>3.571</v>
+        <v>4</v>
       </c>
       <c r="D389" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="E389" t="s">
-        <v>473</v>
+        <v>14</v>
       </c>
       <c r="F389" t="s">
         <v>14</v>
@@ -6477,21 +6489,21 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="392" spans="1:8">
       <c r="B392" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="C392" t="n">
-        <v>3.75</v>
+        <v>3.615</v>
       </c>
       <c r="D392" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="E392" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="F392" t="s">
         <v>14</v>
@@ -6505,21 +6517,21 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="395" spans="1:8">
       <c r="B395" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C395" t="n">
-        <v>3.286</v>
+        <v>3.571</v>
       </c>
       <c r="D395" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E395" t="s">
-        <v>218</v>
+        <v>477</v>
       </c>
       <c r="F395" t="s">
         <v>14</v>
@@ -6533,21 +6545,21 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="398" spans="1:8">
       <c r="B398" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="C398" t="n">
-        <v>3.875</v>
+        <v>3.75</v>
       </c>
       <c r="D398" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E398" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F398" t="s">
         <v>14</v>
@@ -6561,21 +6573,21 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="401" spans="1:8">
       <c r="B401" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C401" t="n">
-        <v>4</v>
+        <v>3.286</v>
       </c>
       <c r="D401" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="E401" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="F401" t="s">
         <v>14</v>
@@ -6589,21 +6601,21 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="404" spans="1:8">
       <c r="B404" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C404" t="n">
-        <v>4</v>
+        <v>3.875</v>
       </c>
       <c r="D404" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E404" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F404" t="s">
         <v>14</v>
@@ -6617,12 +6629,12 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="407" spans="1:8">
       <c r="B407" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C407" t="n">
         <v>4</v>
@@ -6645,12 +6657,12 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="410" spans="1:8">
       <c r="B410" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C410" t="n">
         <v>4</v>
@@ -6673,7 +6685,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -6681,13 +6693,13 @@
         <v>484</v>
       </c>
       <c r="C413" t="n">
-        <v>3.688</v>
+        <v>4</v>
       </c>
       <c r="D413" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="E413" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="F413" t="s">
         <v>14</v>
@@ -6701,21 +6713,21 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="416" spans="1:8">
       <c r="B416" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C416" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D416" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="E416" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="F416" t="s">
         <v>14</v>
@@ -6737,13 +6749,13 @@
         <v>488</v>
       </c>
       <c r="C419" t="n">
-        <v>3.8665</v>
+        <v>3.688</v>
       </c>
       <c r="D419" t="s">
-        <v>464</v>
+        <v>332</v>
       </c>
       <c r="E419" t="s">
-        <v>489</v>
+        <v>221</v>
       </c>
       <c r="F419" t="s">
         <v>14</v>
@@ -6757,21 +6769,21 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="422" spans="1:8">
       <c r="B422" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C422" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D422" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="E422" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F422" t="s">
         <v>14</v>
@@ -6785,21 +6797,21 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="425" spans="1:8">
       <c r="B425" t="s">
+        <v>492</v>
+      </c>
+      <c r="C425" t="n">
+        <v>3.8665</v>
+      </c>
+      <c r="D425" t="s">
+        <v>468</v>
+      </c>
+      <c r="E425" t="s">
         <v>493</v>
-      </c>
-      <c r="C425" t="n">
-        <v>4</v>
-      </c>
-      <c r="D425" t="s">
-        <v>56</v>
-      </c>
-      <c r="E425" t="s">
-        <v>14</v>
       </c>
       <c r="F425" t="s">
         <v>14</v>
@@ -6846,16 +6858,16 @@
     </row>
     <row r="431" spans="1:8">
       <c r="B431" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C431" t="n">
-        <v>3.68</v>
+        <v>4</v>
       </c>
       <c r="D431" t="s">
-        <v>497</v>
+        <v>56</v>
       </c>
       <c r="E431" t="s">
-        <v>498</v>
+        <v>14</v>
       </c>
       <c r="F431" t="s">
         <v>14</v>
@@ -6869,21 +6881,21 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="434" spans="1:8">
       <c r="B434" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C434" t="n">
-        <v>3.667</v>
+        <v>4</v>
       </c>
       <c r="D434" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="E434" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F434" t="s">
         <v>14</v>
@@ -6897,21 +6909,21 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="437" spans="1:8">
       <c r="B437" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="C437" t="n">
-        <v>3.833</v>
+        <v>3.68</v>
       </c>
       <c r="D437" t="s">
-        <v>134</v>
+        <v>501</v>
       </c>
       <c r="E437" t="s">
-        <v>135</v>
+        <v>502</v>
       </c>
       <c r="F437" t="s">
         <v>14</v>
@@ -6925,21 +6937,21 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="440" spans="1:8">
       <c r="B440" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C440" t="n">
-        <v>4</v>
+        <v>3.667</v>
       </c>
       <c r="D440" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="E440" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F440" t="s">
         <v>14</v>
@@ -6953,318 +6965,318 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="443" spans="1:8">
       <c r="B443" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C443" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D443" t="s">
+        <v>134</v>
+      </c>
+      <c r="E443" t="s">
+        <v>135</v>
+      </c>
+      <c r="F443" t="s">
+        <v>14</v>
+      </c>
+      <c r="G443" t="s">
+        <v>14</v>
+      </c>
+      <c r="H443" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="A445" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="B446" t="s">
+        <v>504</v>
+      </c>
+      <c r="C446" t="n">
+        <v>4</v>
+      </c>
+      <c r="D446" t="s">
+        <v>56</v>
+      </c>
+      <c r="E446" t="s">
+        <v>14</v>
+      </c>
+      <c r="F446" t="s">
+        <v>14</v>
+      </c>
+      <c r="G446" t="s">
+        <v>14</v>
+      </c>
+      <c r="H446" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="B449" t="s">
+        <v>499</v>
+      </c>
+      <c r="C449" t="n">
         <v>3.727</v>
       </c>
-      <c r="D443" t="s">
+      <c r="D449" t="s">
         <v>142</v>
       </c>
-      <c r="E443" t="s">
+      <c r="E449" t="s">
         <v>143</v>
       </c>
-      <c r="F443" t="s">
-        <v>14</v>
-      </c>
-      <c r="G443" t="s">
-        <v>14</v>
-      </c>
-      <c r="H443" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8">
-      <c r="B444" t="s">
-        <v>504</v>
-      </c>
-      <c r="C444" t="n">
+      <c r="F449" t="s">
+        <v>14</v>
+      </c>
+      <c r="G449" t="s">
+        <v>14</v>
+      </c>
+      <c r="H449" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
+      <c r="B450" t="s">
+        <v>508</v>
+      </c>
+      <c r="C450" t="n">
         <v>3.727</v>
       </c>
-      <c r="D444" t="s">
+      <c r="D450" t="s">
         <v>147</v>
       </c>
-      <c r="E444" t="s">
+      <c r="E450" t="s">
         <v>150</v>
       </c>
-      <c r="F444" t="s">
+      <c r="F450" t="s">
         <v>150</v>
       </c>
-      <c r="G444" t="s">
-        <v>14</v>
-      </c>
-      <c r="H444" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8">
-      <c r="A446" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8">
-      <c r="B447" t="s">
-        <v>506</v>
-      </c>
-      <c r="C447" t="n">
+      <c r="G450" t="s">
+        <v>14</v>
+      </c>
+      <c r="H450" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
+      <c r="A452" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
+      <c r="B453" t="s">
+        <v>510</v>
+      </c>
+      <c r="C453" t="n">
         <v>3.042</v>
       </c>
-      <c r="D447" t="s">
-        <v>507</v>
-      </c>
-      <c r="E447" t="s">
+      <c r="D453" t="s">
+        <v>511</v>
+      </c>
+      <c r="E453" t="s">
         <v>12</v>
       </c>
-      <c r="F447" t="s">
+      <c r="F453" t="s">
         <v>135</v>
       </c>
-      <c r="G447" t="s">
-        <v>14</v>
-      </c>
-      <c r="H447" t="s">
+      <c r="G453" t="s">
+        <v>14</v>
+      </c>
+      <c r="H453" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8">
-      <c r="B448" t="s">
-        <v>508</v>
-      </c>
-      <c r="C448" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="D448" t="s">
-        <v>170</v>
-      </c>
-      <c r="E448" t="s">
-        <v>131</v>
-      </c>
-      <c r="F448" t="s">
-        <v>14</v>
-      </c>
-      <c r="G448" t="s">
-        <v>14</v>
-      </c>
-      <c r="H448" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8">
-      <c r="A450" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8">
-      <c r="B451" t="s">
-        <v>510</v>
-      </c>
-      <c r="C451" t="n">
-        <v>3.133</v>
-      </c>
-      <c r="D451" t="s">
-        <v>38</v>
-      </c>
-      <c r="E451" t="s">
-        <v>65</v>
-      </c>
-      <c r="F451" t="s">
-        <v>117</v>
-      </c>
-      <c r="G451" t="s">
-        <v>14</v>
-      </c>
-      <c r="H451" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8">
-      <c r="A453" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="454" spans="1:8">
       <c r="B454" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C454" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D454" t="s">
+        <v>170</v>
+      </c>
+      <c r="E454" t="s">
+        <v>131</v>
+      </c>
+      <c r="F454" t="s">
+        <v>14</v>
+      </c>
+      <c r="G454" t="s">
+        <v>14</v>
+      </c>
+      <c r="H454" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
+      <c r="A456" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="B457" t="s">
+        <v>514</v>
+      </c>
+      <c r="C457" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="D457" t="s">
+        <v>38</v>
+      </c>
+      <c r="E457" t="s">
+        <v>65</v>
+      </c>
+      <c r="F457" t="s">
+        <v>117</v>
+      </c>
+      <c r="G457" t="s">
+        <v>14</v>
+      </c>
+      <c r="H457" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
+      <c r="A459" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
+      <c r="B460" t="s">
+        <v>508</v>
+      </c>
+      <c r="C460" t="n">
         <v>3.565</v>
       </c>
-      <c r="D454" t="s">
-        <v>413</v>
-      </c>
-      <c r="E454" t="s">
+      <c r="D460" t="s">
+        <v>416</v>
+      </c>
+      <c r="E460" t="s">
         <v>160</v>
       </c>
-      <c r="F454" t="s">
+      <c r="F460" t="s">
         <v>247</v>
       </c>
-      <c r="G454" t="s">
-        <v>14</v>
-      </c>
-      <c r="H454" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8">
-      <c r="B455" t="s">
-        <v>512</v>
-      </c>
-      <c r="C455" t="n">
+      <c r="G460" t="s">
+        <v>14</v>
+      </c>
+      <c r="H460" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
+      <c r="B461" t="s">
+        <v>516</v>
+      </c>
+      <c r="C461" t="n">
         <v>3.882</v>
       </c>
-      <c r="D455" t="s">
-        <v>513</v>
-      </c>
-      <c r="E455" t="s">
-        <v>514</v>
-      </c>
-      <c r="F455" t="s">
-        <v>14</v>
-      </c>
-      <c r="G455" t="s">
-        <v>14</v>
-      </c>
-      <c r="H455" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8">
-      <c r="A457" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8">
-      <c r="B458" t="s">
-        <v>516</v>
-      </c>
-      <c r="C458" t="n">
+      <c r="D461" t="s">
+        <v>517</v>
+      </c>
+      <c r="E461" t="s">
+        <v>518</v>
+      </c>
+      <c r="F461" t="s">
+        <v>14</v>
+      </c>
+      <c r="G461" t="s">
+        <v>14</v>
+      </c>
+      <c r="H461" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
+      <c r="A463" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
+      <c r="B464" t="s">
+        <v>520</v>
+      </c>
+      <c r="C464" t="n">
         <v>3.864</v>
       </c>
-      <c r="D458" t="s">
+      <c r="D464" t="s">
         <v>149</v>
       </c>
-      <c r="E458" t="s">
+      <c r="E464" t="s">
         <v>216</v>
       </c>
-      <c r="F458" t="s">
+      <c r="F464" t="s">
         <v>216</v>
       </c>
-      <c r="G458" t="s">
-        <v>14</v>
-      </c>
-      <c r="H458" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8">
-      <c r="B459" t="s">
-        <v>517</v>
-      </c>
-      <c r="C459" t="n">
-        <v>3.3335</v>
-      </c>
-      <c r="D459" t="s">
-        <v>518</v>
-      </c>
-      <c r="E459" t="s">
-        <v>91</v>
-      </c>
-      <c r="F459" t="s">
-        <v>263</v>
-      </c>
-      <c r="G459" t="s">
-        <v>14</v>
-      </c>
-      <c r="H459" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8">
-      <c r="A461" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8">
-      <c r="B462" t="s">
-        <v>520</v>
-      </c>
-      <c r="C462" t="n">
-        <v>3.692</v>
-      </c>
-      <c r="D462" t="s">
-        <v>262</v>
-      </c>
-      <c r="E462" t="s">
-        <v>521</v>
-      </c>
-      <c r="F462" t="s">
-        <v>14</v>
-      </c>
-      <c r="G462" t="s">
-        <v>14</v>
-      </c>
-      <c r="H462" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8">
-      <c r="A464" t="s">
-        <v>522</v>
+      <c r="G464" t="s">
+        <v>14</v>
+      </c>
+      <c r="H464" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="465" spans="1:8">
       <c r="B465" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C465" t="n">
-        <v>3.941</v>
+        <v>3.3335</v>
       </c>
       <c r="D465" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E465" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c r="F465" t="s">
-        <v>14</v>
+        <v>263</v>
       </c>
       <c r="G465" t="s">
         <v>14</v>
       </c>
       <c r="H465" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
     </row>
     <row r="467" spans="1:8">
       <c r="A467" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="468" spans="1:8">
       <c r="B468" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="C468" t="n">
-        <v>2.222</v>
+        <v>3.692</v>
       </c>
       <c r="D468" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="E468" t="s">
-        <v>285</v>
+        <v>525</v>
       </c>
       <c r="F468" t="s">
-        <v>369</v>
+        <v>14</v>
       </c>
       <c r="G468" t="s">
         <v>14</v>
       </c>
       <c r="H468" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -7274,16 +7286,16 @@
     </row>
     <row r="471" spans="1:8">
       <c r="B471" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="C471" t="n">
-        <v>3.438</v>
+        <v>3.941</v>
       </c>
       <c r="D471" t="s">
-        <v>11</v>
+        <v>528</v>
       </c>
       <c r="E471" t="s">
-        <v>527</v>
+        <v>286</v>
       </c>
       <c r="F471" t="s">
         <v>14</v>
@@ -7297,195 +7309,195 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="474" spans="1:8">
       <c r="B474" t="s">
-        <v>529</v>
+        <v>492</v>
       </c>
       <c r="C474" t="n">
-        <v>2.913</v>
+        <v>2.222</v>
       </c>
       <c r="D474" t="s">
-        <v>530</v>
+        <v>285</v>
       </c>
       <c r="E474" t="s">
-        <v>531</v>
+        <v>285</v>
       </c>
       <c r="F474" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="G474" t="s">
         <v>14</v>
       </c>
       <c r="H474" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="477" spans="1:8">
       <c r="B477" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="C477" t="n">
-        <v>2.533</v>
+        <v>3.438</v>
       </c>
       <c r="D477" t="s">
-        <v>432</v>
+        <v>11</v>
       </c>
       <c r="E477" t="s">
-        <v>38</v>
+        <v>531</v>
       </c>
       <c r="F477" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="G477" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H477" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="479" spans="1:8">
       <c r="A479" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="480" spans="1:8">
       <c r="B480" t="s">
+        <v>533</v>
+      </c>
+      <c r="C480" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="D480" t="s">
         <v>534</v>
       </c>
-      <c r="C480" t="n">
-        <v>3.768</v>
-      </c>
-      <c r="D480" t="s">
+      <c r="E480" t="s">
         <v>535</v>
       </c>
-      <c r="E480" t="s">
-        <v>536</v>
-      </c>
       <c r="F480" t="s">
-        <v>537</v>
+        <v>415</v>
       </c>
       <c r="G480" t="s">
-        <v>538</v>
+        <v>14</v>
       </c>
       <c r="H480" t="s">
-        <v>539</v>
+        <v>247</v>
       </c>
     </row>
     <row r="482" spans="1:8">
       <c r="A482" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="483" spans="1:8">
       <c r="B483" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="C483" t="n">
-        <v>3.64</v>
+        <v>2.533</v>
       </c>
       <c r="D483" t="s">
-        <v>497</v>
+        <v>436</v>
       </c>
       <c r="E483" t="s">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="F483" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="G483" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="H483" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="485" spans="1:8">
       <c r="A485" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="486" spans="1:8">
       <c r="B486" t="s">
+        <v>538</v>
+      </c>
+      <c r="C486" t="n">
+        <v>3.768</v>
+      </c>
+      <c r="D486" t="s">
+        <v>539</v>
+      </c>
+      <c r="E486" t="s">
+        <v>540</v>
+      </c>
+      <c r="F486" t="s">
+        <v>541</v>
+      </c>
+      <c r="G486" t="s">
+        <v>542</v>
+      </c>
+      <c r="H486" t="s">
         <v>543</v>
-      </c>
-      <c r="C486" t="n">
-        <v>3.111</v>
-      </c>
-      <c r="D486" t="s">
-        <v>544</v>
-      </c>
-      <c r="E486" t="s">
-        <v>38</v>
-      </c>
-      <c r="F486" t="s">
-        <v>129</v>
-      </c>
-      <c r="G486" t="s">
-        <v>129</v>
-      </c>
-      <c r="H486" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="488" spans="1:8">
       <c r="A488" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="489" spans="1:8">
       <c r="B489" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C489" t="n">
-        <v>3.417</v>
+        <v>3.64</v>
       </c>
       <c r="D489" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E489" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="F489" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="G489" t="s">
         <v>14</v>
       </c>
       <c r="H489" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
     </row>
     <row r="491" spans="1:8">
       <c r="A491" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="492" spans="1:8">
       <c r="B492" t="s">
+        <v>547</v>
+      </c>
+      <c r="C492" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="D492" t="s">
         <v>548</v>
       </c>
-      <c r="C492" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D492" t="s">
-        <v>271</v>
-      </c>
       <c r="E492" t="s">
-        <v>272</v>
+        <v>38</v>
       </c>
       <c r="F492" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="G492" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="H492" t="s">
         <v>14</v>
@@ -7498,44 +7510,44 @@
     </row>
     <row r="495" spans="1:8">
       <c r="B495" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="C495" t="n">
-        <v>3.556</v>
+        <v>3.417</v>
       </c>
       <c r="D495" t="s">
-        <v>130</v>
+        <v>511</v>
       </c>
       <c r="E495" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F495" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="G495" t="s">
         <v>14</v>
       </c>
       <c r="H495" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
     </row>
     <row r="497" spans="1:8">
       <c r="A497" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="498" spans="1:8">
       <c r="B498" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C498" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="D498" t="s">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="E498" t="s">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="F498" t="s">
         <v>14</v>
@@ -7549,24 +7561,24 @@
     </row>
     <row r="500" spans="1:8">
       <c r="A500" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="501" spans="1:8">
       <c r="B501" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="C501" t="n">
-        <v>3.462</v>
+        <v>3.556</v>
       </c>
       <c r="D501" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E501" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="F501" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="G501" t="s">
         <v>14</v>
@@ -7582,7 +7594,7 @@
     </row>
     <row r="504" spans="1:8">
       <c r="B504" t="s">
-        <v>508</v>
+        <v>555</v>
       </c>
       <c r="C504" t="n">
         <v>4</v>
@@ -7605,24 +7617,24 @@
     </row>
     <row r="506" spans="1:8">
       <c r="A506" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="507" spans="1:8">
       <c r="B507" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C507" t="n">
-        <v>3.2715</v>
+        <v>3.462</v>
       </c>
       <c r="D507" t="s">
-        <v>557</v>
+        <v>100</v>
       </c>
       <c r="E507" t="s">
-        <v>558</v>
+        <v>199</v>
       </c>
       <c r="F507" t="s">
-        <v>559</v>
+        <v>265</v>
       </c>
       <c r="G507" t="s">
         <v>14</v>
@@ -7633,52 +7645,52 @@
     </row>
     <row r="509" spans="1:8">
       <c r="A509" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="510" spans="1:8">
       <c r="B510" t="s">
-        <v>226</v>
+        <v>512</v>
       </c>
       <c r="C510" t="n">
-        <v>2.9747</v>
+        <v>4</v>
       </c>
       <c r="D510" t="s">
-        <v>561</v>
+        <v>56</v>
       </c>
       <c r="E510" t="s">
-        <v>561</v>
+        <v>14</v>
       </c>
       <c r="F510" t="s">
-        <v>562</v>
+        <v>14</v>
       </c>
       <c r="G510" t="s">
-        <v>563</v>
+        <v>14</v>
       </c>
       <c r="H510" t="s">
-        <v>366</v>
+        <v>14</v>
       </c>
     </row>
     <row r="512" spans="1:8">
       <c r="A512" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="513" spans="1:8">
       <c r="B513" t="s">
-        <v>226</v>
+        <v>560</v>
       </c>
       <c r="C513" t="n">
-        <v>3.129</v>
+        <v>3.2715</v>
       </c>
       <c r="D513" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E513" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F513" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G513" t="s">
         <v>14</v>
@@ -7689,177 +7701,177 @@
     </row>
     <row r="515" spans="1:8">
       <c r="A515" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="516" spans="1:8">
       <c r="B516" t="s">
+        <v>226</v>
+      </c>
+      <c r="C516" t="n">
+        <v>2.9747</v>
+      </c>
+      <c r="D516" t="s">
+        <v>565</v>
+      </c>
+      <c r="E516" t="s">
+        <v>565</v>
+      </c>
+      <c r="F516" t="s">
+        <v>566</v>
+      </c>
+      <c r="G516" t="s">
+        <v>567</v>
+      </c>
+      <c r="H516" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="A518" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="B519" t="s">
+        <v>226</v>
+      </c>
+      <c r="C519" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="D519" t="s">
         <v>569</v>
       </c>
-      <c r="C516" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="D516" t="s">
-        <v>117</v>
-      </c>
-      <c r="E516" t="s">
+      <c r="E519" t="s">
         <v>570</v>
       </c>
-      <c r="F516" t="s">
-        <v>97</v>
-      </c>
-      <c r="G516" t="s">
-        <v>97</v>
-      </c>
-      <c r="H516" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="517" spans="1:8">
-      <c r="B517" t="s">
+      <c r="F519" t="s">
         <v>571</v>
       </c>
-      <c r="C517" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D517" t="s">
-        <v>131</v>
-      </c>
-      <c r="E517" t="s">
-        <v>59</v>
-      </c>
-      <c r="F517" t="s">
-        <v>181</v>
-      </c>
-      <c r="G517" t="s">
-        <v>14</v>
-      </c>
-      <c r="H517" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8">
-      <c r="B518" t="s">
+      <c r="G519" t="s">
+        <v>14</v>
+      </c>
+      <c r="H519" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="A521" t="s">
         <v>572</v>
-      </c>
-      <c r="C518" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D518" t="s">
-        <v>573</v>
-      </c>
-      <c r="E518" t="s">
-        <v>39</v>
-      </c>
-      <c r="F518" t="s">
-        <v>39</v>
-      </c>
-      <c r="G518" t="s">
-        <v>14</v>
-      </c>
-      <c r="H518" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8">
-      <c r="A520" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8">
-      <c r="B521" t="s">
-        <v>575</v>
-      </c>
-      <c r="C521" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="D521" t="s">
-        <v>576</v>
-      </c>
-      <c r="E521" t="s">
-        <v>91</v>
-      </c>
-      <c r="F521" t="s">
-        <v>91</v>
-      </c>
-      <c r="G521" t="s">
-        <v>577</v>
-      </c>
-      <c r="H521" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="522" spans="1:8">
       <c r="B522" t="s">
+        <v>573</v>
+      </c>
+      <c r="C522" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D522" t="s">
+        <v>117</v>
+      </c>
+      <c r="E522" t="s">
+        <v>574</v>
+      </c>
+      <c r="F522" t="s">
+        <v>97</v>
+      </c>
+      <c r="G522" t="s">
+        <v>97</v>
+      </c>
+      <c r="H522" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="B523" t="s">
+        <v>575</v>
+      </c>
+      <c r="C523" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D523" t="s">
+        <v>131</v>
+      </c>
+      <c r="E523" t="s">
+        <v>59</v>
+      </c>
+      <c r="F523" t="s">
+        <v>181</v>
+      </c>
+      <c r="G523" t="s">
+        <v>14</v>
+      </c>
+      <c r="H523" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="B524" t="s">
+        <v>576</v>
+      </c>
+      <c r="C524" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D524" t="s">
+        <v>577</v>
+      </c>
+      <c r="E524" t="s">
+        <v>39</v>
+      </c>
+      <c r="F524" t="s">
+        <v>39</v>
+      </c>
+      <c r="G524" t="s">
+        <v>14</v>
+      </c>
+      <c r="H524" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="A526" t="s">
         <v>578</v>
       </c>
-      <c r="C522" t="n">
-        <v>2.893</v>
-      </c>
-      <c r="D522" t="s">
-        <v>272</v>
-      </c>
-      <c r="E522" t="s">
+    </row>
+    <row r="527" spans="1:8">
+      <c r="B527" t="s">
         <v>579</v>
       </c>
-      <c r="F522" t="s">
-        <v>32</v>
-      </c>
-      <c r="G522" t="s">
-        <v>14</v>
-      </c>
-      <c r="H522" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8">
-      <c r="A524" t="s">
+      <c r="C527" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="D527" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="525" spans="1:8">
-      <c r="B525" t="s">
+      <c r="E527" t="s">
+        <v>91</v>
+      </c>
+      <c r="F527" t="s">
+        <v>91</v>
+      </c>
+      <c r="G527" t="s">
         <v>581</v>
       </c>
-      <c r="C525" t="n">
-        <v>3.7993</v>
-      </c>
-      <c r="D525" t="s">
-        <v>582</v>
-      </c>
-      <c r="E525" t="s">
-        <v>583</v>
-      </c>
-      <c r="F525" t="s">
-        <v>363</v>
-      </c>
-      <c r="G525" t="s">
-        <v>14</v>
-      </c>
-      <c r="H525" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8">
-      <c r="A527" t="s">
-        <v>584</v>
+      <c r="H527" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="528" spans="1:8">
       <c r="B528" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C528" t="n">
-        <v>3.3</v>
+        <v>2.893</v>
       </c>
       <c r="D528" t="s">
-        <v>586</v>
+        <v>272</v>
       </c>
       <c r="E528" t="s">
-        <v>96</v>
+        <v>583</v>
       </c>
       <c r="F528" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G528" t="s">
         <v>14</v>
@@ -7870,55 +7882,55 @@
     </row>
     <row r="530" spans="1:8">
       <c r="A530" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="531" spans="1:8">
       <c r="B531" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C531" t="n">
-        <v>2.867</v>
+        <v>3.7993</v>
       </c>
       <c r="D531" t="s">
-        <v>102</v>
+        <v>586</v>
       </c>
       <c r="E531" t="s">
-        <v>38</v>
+        <v>587</v>
       </c>
       <c r="F531" t="s">
-        <v>145</v>
+        <v>363</v>
       </c>
       <c r="G531" t="s">
         <v>14</v>
       </c>
       <c r="H531" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="533" spans="1:8">
       <c r="A533" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="534" spans="1:8">
       <c r="B534" t="s">
-        <v>225</v>
+        <v>589</v>
       </c>
       <c r="C534" t="n">
-        <v>3.417</v>
+        <v>3.3</v>
       </c>
       <c r="D534" t="s">
-        <v>507</v>
+        <v>590</v>
       </c>
       <c r="E534" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="F534" t="s">
         <v>14</v>
       </c>
       <c r="G534" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="H534" t="s">
         <v>14</v>
@@ -7926,55 +7938,55 @@
     </row>
     <row r="536" spans="1:8">
       <c r="A536" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="537" spans="1:8">
       <c r="B537" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C537" t="n">
-        <v>3.312</v>
+        <v>2.867</v>
       </c>
       <c r="D537" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="E537" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F537" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="G537" t="s">
         <v>14</v>
       </c>
       <c r="H537" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="539" spans="1:8">
       <c r="A539" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="540" spans="1:8">
       <c r="B540" t="s">
-        <v>593</v>
+        <v>225</v>
       </c>
       <c r="C540" t="n">
-        <v>3.875</v>
+        <v>3.417</v>
       </c>
       <c r="D540" t="s">
-        <v>22</v>
+        <v>511</v>
       </c>
       <c r="E540" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F540" t="s">
         <v>14</v>
       </c>
       <c r="G540" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="H540" t="s">
         <v>14</v>
@@ -7987,19 +7999,19 @@
     </row>
     <row r="543" spans="1:8">
       <c r="B543" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C543" t="n">
-        <v>4</v>
+        <v>3.312</v>
       </c>
       <c r="D543" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E543" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F543" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G543" t="s">
         <v>14</v>
@@ -8010,21 +8022,21 @@
     </row>
     <row r="545" spans="1:8">
       <c r="A545" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="546" spans="1:8">
       <c r="B546" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="C546" t="n">
-        <v>4</v>
+        <v>3.875</v>
       </c>
       <c r="D546" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E546" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F546" t="s">
         <v>14</v>
@@ -8038,49 +8050,49 @@
     </row>
     <row r="548" spans="1:8">
       <c r="A548" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="549" spans="1:8">
       <c r="B549" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="C549" t="n">
-        <v>2.933</v>
+        <v>4</v>
       </c>
       <c r="D549" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="E549" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F549" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="G549" t="s">
         <v>14</v>
       </c>
       <c r="H549" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
     </row>
     <row r="551" spans="1:8">
       <c r="A551" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="552" spans="1:8">
       <c r="B552" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C552" t="n">
-        <v>3.909</v>
+        <v>4</v>
       </c>
       <c r="D552" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="E552" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="F552" t="s">
         <v>14</v>
@@ -8094,30 +8106,30 @@
     </row>
     <row r="554" spans="1:8">
       <c r="A554" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="555" spans="1:8">
       <c r="B555" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="C555" t="n">
-        <v>3.5</v>
+        <v>2.933</v>
       </c>
       <c r="D555" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E555" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F555" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="G555" t="s">
         <v>14</v>
       </c>
       <c r="H555" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -8130,16 +8142,16 @@
         <v>602</v>
       </c>
       <c r="C558" t="n">
-        <v>3.5</v>
+        <v>3.909</v>
       </c>
       <c r="D558" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E558" t="s">
-        <v>586</v>
+        <v>150</v>
       </c>
       <c r="F558" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="G558" t="s">
         <v>14</v>
@@ -8155,19 +8167,19 @@
     </row>
     <row r="561" spans="1:8">
       <c r="B561" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C561" t="n">
-        <v>3.235</v>
+        <v>3.5</v>
       </c>
       <c r="D561" t="s">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="E561" t="s">
-        <v>369</v>
+        <v>91</v>
       </c>
       <c r="F561" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="G561" t="s">
         <v>14</v>
@@ -8178,24 +8190,24 @@
     </row>
     <row r="563" spans="1:8">
       <c r="A563" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="564" spans="1:8">
       <c r="B564" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C564" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D564" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E564" t="s">
-        <v>117</v>
+        <v>590</v>
       </c>
       <c r="F564" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="G564" t="s">
         <v>14</v>
@@ -8206,29 +8218,85 @@
     </row>
     <row r="566" spans="1:8">
       <c r="A566" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="567" spans="1:8">
       <c r="B567" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="C567" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="D567" t="s">
+        <v>370</v>
+      </c>
+      <c r="E567" t="s">
+        <v>369</v>
+      </c>
+      <c r="F567" t="s">
+        <v>285</v>
+      </c>
+      <c r="G567" t="s">
+        <v>14</v>
+      </c>
+      <c r="H567" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="B570" t="s">
+        <v>604</v>
+      </c>
+      <c r="C570" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D570" t="s">
+        <v>111</v>
+      </c>
+      <c r="E570" t="s">
+        <v>117</v>
+      </c>
+      <c r="F570" t="s">
+        <v>14</v>
+      </c>
+      <c r="G570" t="s">
+        <v>14</v>
+      </c>
+      <c r="H570" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="B573" t="s">
+        <v>597</v>
+      </c>
+      <c r="C573" t="n">
         <v>3.875</v>
       </c>
-      <c r="D567" t="s">
+      <c r="D573" t="s">
         <v>22</v>
       </c>
-      <c r="E567" t="s">
+      <c r="E573" t="s">
         <v>12</v>
       </c>
-      <c r="F567" t="s">
-        <v>14</v>
-      </c>
-      <c r="G567" t="s">
-        <v>14</v>
-      </c>
-      <c r="H567" t="s">
+      <c r="F573" t="s">
+        <v>14</v>
+      </c>
+      <c r="G573" t="s">
+        <v>14</v>
+      </c>
+      <c r="H573" t="s">
         <v>14</v>
       </c>
     </row>
